--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_10.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221764</v>
+        <v>2629876.587221765</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19997574.02179437</v>
       </c>
     </row>
     <row r="9">
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="S2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="V2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -829,19 +829,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.29193749722201</v>
       </c>
       <c r="I4" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>9.977552361264268</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>27.29193749722201</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I7" t="n">
         <v>39.58387696184059</v>
@@ -1078,7 +1078,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1269,16 +1269,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="S11" t="n">
         <v>39.58387696184059</v>
@@ -1424,7 +1424,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="U11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>39.58387696184059</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="T12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="U12" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>39.58387696184059</v>
+        <v>22.91618947337665</v>
       </c>
       <c r="G14" t="n">
         <v>39.58387696184059</v>
@@ -1625,10 +1625,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="I14" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="E15" t="n">
-        <v>34.11888750173132</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F15" t="n">
         <v>39.58387696184059</v>
@@ -1704,10 +1704,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26.92232807701203</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G17" t="n">
         <v>44.13217237922859</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S18" t="n">
         <v>44.13217237922859</v>
@@ -1977,7 +1977,7 @@
         <v>44.13217237922859</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U19" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="W19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,16 +2160,16 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>107.7147626390813</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>18.41380945746042</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2178,10 +2178,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2236,67 +2236,67 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2321,70 +2321,70 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>170.7457531160715</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>73.65830350187551</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2530,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="G26" t="n">
         <v>241.0142888776591</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,16 +2640,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>34.67481985855913</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,13 +2804,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="E30" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2989,16 +2989,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3165,10 +3165,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>96.52468151912586</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3244,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>21.18375537072436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>62.86349518004438</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -3351,22 +3351,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>72.05537011386205</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,13 +3442,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3560,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>184.8969770445152</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3700,19 +3700,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,76 +3737,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>208.2792470398066</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>236.4659934602711</v>
       </c>
-      <c r="C41" t="n">
+      <c r="X41" t="n">
         <v>236.4659934602711</v>
       </c>
-      <c r="D41" t="n">
-        <v>208.2792470398066</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="Y41" t="n">
         <v>236.4659934602711</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3840,7 +3840,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>36.95496583014171</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>102.4757780034416</v>
       </c>
       <c r="W42" t="n">
         <v>236.4659934602711</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>34.86547882798917</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
     </row>
     <row r="45">
@@ -4056,73 +4056,73 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="U45" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
       <c r="V45" t="n">
-        <v>34.86547882798917</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,70 +4132,70 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>7.256111626157765</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D46" t="n">
+      <c r="V46" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
+      <c r="W46" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4334,13 +4334,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
         <v>119.1474696551402</v>
@@ -4349,25 +4349,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S2" t="n">
-        <v>108.260178376266</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T2" t="n">
-        <v>68.2764642733967</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U2" t="n">
-        <v>28.29275017052741</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V2" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="W2" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="X2" t="n">
         <v>3.166710156947247</v>
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F3" t="n">
-        <v>3.920842809732961</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G3" t="n">
-        <v>3.920842809732961</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H3" t="n">
-        <v>3.920842809732961</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I3" t="n">
         <v>3.920842809732961</v>
@@ -4410,19 +4410,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L3" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N3" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P3" t="n">
         <v>119.1474696551402</v>
@@ -4431,28 +4431,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.920842809732961</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="4">
@@ -4477,16 +4477,16 @@
         <v>133.1961881840039</v>
       </c>
       <c r="G4" t="n">
-        <v>93.21247408113457</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="H4" t="n">
-        <v>53.22875997826529</v>
+        <v>105.6285745504463</v>
       </c>
       <c r="I4" t="n">
-        <v>13.245045875396</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J4" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="C5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="D5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I5" t="n">
         <v>15.2366994040306</v>
@@ -4571,46 +4571,46 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L5" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N5" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q5" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T5" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="V5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="W5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.3355078473624</v>
+        <v>15.2366994040306</v>
       </c>
     </row>
     <row r="6">
@@ -4650,16 +4650,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
         <v>119.1474696551402</v>
@@ -4717,13 +4717,13 @@
         <v>133.1961881840039</v>
       </c>
       <c r="H7" t="n">
-        <v>105.6285745504463</v>
+        <v>93.21247408113457</v>
       </c>
       <c r="I7" t="n">
-        <v>65.64486044757699</v>
+        <v>53.22875997826529</v>
       </c>
       <c r="J7" t="n">
-        <v>25.66114634470771</v>
+        <v>13.245045875396</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F8" t="n">
-        <v>15.2366994040306</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2366994040306</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H8" t="n">
-        <v>15.2366994040306</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I8" t="n">
         <v>15.2366994040306</v>
@@ -4808,13 +4808,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M8" t="n">
-        <v>120.7308247336138</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N8" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O8" t="n">
         <v>158.3355078473624</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.2366994040306</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
@@ -4896,7 +4896,7 @@
         <v>79.95943146291799</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P9" t="n">
         <v>119.1474696551402</v>
@@ -4917,16 +4917,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>123.1178524655551</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>83.13413836268582</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>43.15042425981653</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="C11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="D11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="E11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="F11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="G11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="H11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
@@ -5054,37 +5054,37 @@
         <v>119.1474696551402</v>
       </c>
       <c r="O11" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P11" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="S11" t="n">
-        <v>118.3517937444931</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="T11" t="n">
-        <v>78.36807964162378</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="U11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="V11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="W11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="X11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
     </row>
     <row r="12">
@@ -5121,7 +5121,7 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K12" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
         <v>42.35474834916943</v>
@@ -5130,10 +5130,10 @@
         <v>79.95943146291799</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P12" t="n">
         <v>158.3355078473624</v>
@@ -5142,16 +5142,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S12" t="n">
-        <v>78.36807964162378</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T12" t="n">
-        <v>38.38436553875449</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="U12" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="V12" t="n">
         <v>3.166710156947247</v>
@@ -5264,34 +5264,34 @@
         <v>158.3355078473624</v>
       </c>
       <c r="F14" t="n">
-        <v>118.3517937444931</v>
+        <v>135.1878417126385</v>
       </c>
       <c r="G14" t="n">
-        <v>78.36807964162378</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="H14" t="n">
-        <v>38.38436553875449</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J14" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K14" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L14" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="M14" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N14" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
@@ -5337,43 +5337,43 @@
         <v>158.3355078473624</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E15" t="n">
-        <v>123.8719851183408</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F15" t="n">
-        <v>83.88827101547153</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>43.90455691260225</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J15" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
         <v>79.95943146291799</v>
       </c>
       <c r="M15" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="N15" t="n">
         <v>119.1474696551402</v>
       </c>
-      <c r="N15" t="n">
-        <v>158.3355078473624</v>
-      </c>
       <c r="O15" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P15" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F17" t="n">
         <v>149.3344187320537</v>
@@ -5516,16 +5516,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N17" t="n">
-        <v>132.8378388614781</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O17" t="n">
         <v>176.5286895169144</v>
@@ -5534,31 +5534,31 @@
         <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y17" t="n">
-        <v>176.5286895169144</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5595,16 +5595,16 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>45.45613755060546</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>89.14698820604177</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
         <v>132.8378388614781</v>
@@ -5616,28 +5616,28 @@
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
-        <v>87.37278572049297</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T18" t="n">
-        <v>42.79483382228227</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>42.79483382228227</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
         <v>3.530573790338288</v>
@@ -5698,25 +5698,25 @@
         <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="U19" t="n">
-        <v>93.48491238239833</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V19" t="n">
-        <v>48.90696048418764</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5777,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>526.7184526376595</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="C21" t="n">
-        <v>526.7184526376595</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="D21" t="n">
-        <v>526.7184526376595</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>381.0346734484355</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5835,19 +5835,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>526.7184526376595</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W21" t="n">
-        <v>526.7184526376595</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X21" t="n">
-        <v>526.7184526376595</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y21" t="n">
-        <v>526.7184526376595</v>
+        <v>555.4877027295624</v>
       </c>
     </row>
     <row r="22">
@@ -5944,16 +5944,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>168.9696854242497</v>
+        <v>191.7516008032143</v>
       </c>
       <c r="C24" t="n">
-        <v>168.9696854242497</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>788.4852992939507</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>545.0365226498506</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X24" t="n">
-        <v>337.1850224443177</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y24" t="n">
-        <v>337.1850224443177</v>
+        <v>191.7516008032143</v>
       </c>
     </row>
     <row r="25">
@@ -6178,10 +6178,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
         <v>829.5248650203655</v>
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F26" t="n">
         <v>506.1786963984129</v>
@@ -6248,28 +6248,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6315,40 +6315,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
         <v>31.35113235729608</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C30" t="n">
-        <v>103.1517411481337</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D30" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
         <v>19.28114311021272</v>
@@ -6543,13 +6543,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6573,19 +6573,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>485.4562706347935</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>277.6047704292607</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6637,13 +6637,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S31" t="n">
         <v>19.28114311021272</v>
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C32" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D32" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E32" t="n">
-        <v>509.4769954460863</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F32" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>752.9257720901863</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="33">
@@ -6780,40 +6780,40 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W33" t="n">
         <v>19.28114311021272</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>284.1276524520142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6990,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>581.7526260239764</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>581.7526260239764</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7047,19 +7047,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>257.2326523711826</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>257.2326523711826</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
         <v>19.28114311021272</v>
@@ -7126,19 +7126,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7199,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W38" t="n">
-        <v>752.9257720901863</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
         <v>19.28114311021272</v>
@@ -7260,10 +7260,10 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
         <v>712.019119383956</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>777.2925322333481</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X39" t="n">
-        <v>569.4410320278153</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>707.0094349923255</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="C41" t="n">
-        <v>468.1548961435668</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="E41" t="n">
         <v>18.91727947682168</v>
@@ -7418,13 +7418,13 @@
         <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
-        <v>518.9837642353068</v>
+        <v>501.1544461991459</v>
       </c>
       <c r="N41" t="n">
-        <v>724.8382864425462</v>
+        <v>707.0089684063852</v>
       </c>
       <c r="O41" t="n">
-        <v>874.0332365851942</v>
+        <v>856.2039185490332</v>
       </c>
       <c r="P41" t="n">
         <v>945.8639738410842</v>
@@ -7448,13 +7448,13 @@
         <v>945.8639738410842</v>
       </c>
       <c r="W41" t="n">
-        <v>945.8639738410842</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X41" t="n">
-        <v>945.8639738410842</v>
+        <v>468.1548961435668</v>
       </c>
       <c r="Y41" t="n">
-        <v>945.8639738410842</v>
+        <v>229.3003572948082</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.6714121296074</v>
       </c>
       <c r="J42" t="n">
         <v>18.91727947682168</v>
@@ -7494,19 +7494,19 @@
         <v>18.91727947682168</v>
       </c>
       <c r="L42" t="n">
-        <v>174.1654147507498</v>
+        <v>248.8803853451708</v>
       </c>
       <c r="M42" t="n">
-        <v>408.2667482764182</v>
+        <v>477.6613067897475</v>
       </c>
       <c r="N42" t="n">
-        <v>642.3680818020865</v>
+        <v>711.7626403154159</v>
       </c>
       <c r="O42" t="n">
-        <v>876.4694153277549</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q42" t="n">
         <v>945.8639738410842</v>
@@ -7515,25 +7515,25 @@
         <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>908.5357255278097</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>908.5357255278097</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>908.5357255278097</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>673.3836172960671</v>
+        <v>842.3530869689209</v>
       </c>
       <c r="W42" t="n">
-        <v>434.5290784473084</v>
+        <v>603.4985481201622</v>
       </c>
       <c r="X42" t="n">
-        <v>226.6775782417756</v>
+        <v>395.6470479146294</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.91727947682168</v>
+        <v>187.8867491496754</v>
       </c>
     </row>
     <row r="43">
@@ -7594,10 +7594,10 @@
         <v>153.4495699670924</v>
       </c>
       <c r="S43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="T43" t="n">
-        <v>18.91727947682168</v>
+        <v>153.4495699670924</v>
       </c>
       <c r="U43" t="n">
         <v>18.91727947682168</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="C44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="D44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="E44" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F44" t="n">
         <v>3.166710156947247</v>
@@ -7655,10 +7655,10 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M44" t="n">
-        <v>81.54278654139161</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N44" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="O44" t="n">
         <v>158.3355078473624</v>
@@ -7670,28 +7670,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R44" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S44" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T44" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U44" t="n">
-        <v>3.166710156947247</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V44" t="n">
-        <v>3.166710156947247</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W44" t="n">
-        <v>3.166710156947247</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X44" t="n">
-        <v>3.166710156947247</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C45" t="n">
         <v>3.166710156947247</v>
@@ -7734,16 +7734,16 @@
         <v>3.166710156947247</v>
       </c>
       <c r="M45" t="n">
-        <v>40.77139327069581</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N45" t="n">
-        <v>79.95943146291799</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O45" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q45" t="n">
         <v>158.3355078473624</v>
@@ -7755,22 +7755,22 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U45" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="V45" t="n">
-        <v>123.1178524655551</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="W45" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X45" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y45" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>108.2734580260443</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="C46" t="n">
-        <v>68.28974392317502</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="D46" t="n">
-        <v>28.30602982030574</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="E46" t="n">
-        <v>28.30602982030574</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="F46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K46" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L46" t="n">
-        <v>55.62015482801871</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M46" t="n">
-        <v>94.80819302024089</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N46" t="n">
-        <v>133.9962312124631</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O46" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>158.3355078473624</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q46" t="n">
-        <v>158.3355078473624</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R46" t="n">
-        <v>158.3355078473624</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S46" t="n">
-        <v>158.3355078473624</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T46" t="n">
-        <v>118.3517937444931</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U46" t="n">
-        <v>118.3517937444931</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V46" t="n">
-        <v>118.3517937444931</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="W46" t="n">
-        <v>118.3517937444931</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="X46" t="n">
-        <v>118.3517937444931</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="Y46" t="n">
-        <v>118.3517937444931</v>
+        <v>10.49611583993489</v>
       </c>
     </row>
   </sheetData>
@@ -7982,16 +7982,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
         <v>268.9969405584315</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>270.8168727171101</v>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>170.9255890451739</v>
+        <v>169.3262404810591</v>
       </c>
       <c r="O3" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q3" t="n">
         <v>179.5656510478621</v>
@@ -8219,19 +8219,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>275.3502919318278</v>
       </c>
       <c r="M5" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>269.2175241529953</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8298,7 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>180.1185623197441</v>
@@ -8310,7 +8310,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
         <v>179.5656510478621</v>
@@ -8456,16 +8456,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M8" t="n">
         <v>269.9301101891133</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8544,10 +8544,10 @@
         <v>170.9255890451739</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>179.5656510478621</v>
@@ -8702,10 +8702,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P11" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>180.1185623197441</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>170.9255890451739</v>
       </c>
       <c r="O12" t="n">
         <v>182.180121406285</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>259.6737280068211</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>273.750943367713</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N14" t="n">
         <v>268.9969405584315</v>
@@ -8942,7 +8942,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>175.8259673720848</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>176.5389081776</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>170.9255890451739</v>
@@ -9024,7 +9024,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M17" t="n">
         <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,19 +9243,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>180.1904932776592</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
         <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9483,7 +9483,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
@@ -9495,10 +9495,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9963,7 +9963,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,16 +10665,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>357.7767872515269</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>431.5041213350942</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>303.7892960137443</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,10 +11142,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>295.3706780363673</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>373.2258737650251</v>
       </c>
       <c r="N42" t="n">
         <v>367.8077055436044</v>
@@ -11157,7 +11157,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,13 +11303,13 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N44" t="n">
         <v>267.3975919943167</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
         <v>231.2329957552695</v>
@@ -11382,19 +11382,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N45" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O45" t="n">
-        <v>182.180121406285</v>
+        <v>180.5807728421703</v>
       </c>
       <c r="P45" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22589,28 +22589,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>115.0036391131605</v>
       </c>
       <c r="S2" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>211.7617759459959</v>
       </c>
       <c r="V2" t="n">
-        <v>302.8774788566905</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.6570917555724</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>330.1472237166284</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,16 +22635,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,16 +22671,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>191.8224945792435</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22717,19 +22717,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>128.4071023966182</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>122.643295545599</v>
+        <v>134.9352350102176</v>
       </c>
       <c r="I4" t="n">
         <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>83.3816277554085</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>238.4201626490047</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22957,7 +22957,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>134.9352350102176</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I7" t="n">
         <v>115.8665979654177</v>
@@ -22966,7 +22966,7 @@
         <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>12.29193946461858</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>299.8909251539266</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>238.4201626490047</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23157,16 +23157,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>197.9351083214361</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>212.111106199079</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>175.6104107424167</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23300,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>136.9436276823178</v>
       </c>
       <c r="S11" t="n">
         <v>169.4361926244048</v>
@@ -23312,7 +23312,7 @@
         <v>183.5119726022908</v>
       </c>
       <c r="U11" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>132.0992941419972</v>
+        <v>136.8176922758487</v>
       </c>
       <c r="T12" t="n">
         <v>160.580851732981</v>
       </c>
       <c r="U12" t="n">
-        <v>191.0759032529857</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>383.9598562683348</v>
       </c>
       <c r="G14" t="n">
         <v>375.7188605532945</v>
@@ -23513,10 +23513,10 @@
         <v>299.8909251539266</v>
       </c>
       <c r="I14" t="n">
-        <v>175.6104107424167</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23577,10 +23577,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>112.5795867366496</v>
       </c>
       <c r="E15" t="n">
-        <v>123.5261929536696</v>
+        <v>118.0612034935604</v>
       </c>
       <c r="F15" t="n">
         <v>105.4853354315433</v>
@@ -23592,10 +23592,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>379.9537176646994</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G17" t="n">
         <v>371.1705651359065</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23829,7 +23829,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
         <v>127.5509987246092</v>
@@ -23865,7 +23865,7 @@
         <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,7 +23902,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2005289107765</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
         <v>162.2271725074396</v>
@@ -23938,19 +23938,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
         <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>251.3471928761457</v>
       </c>
       <c r="W19" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23972,16 +23972,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>394.1189821444107</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24017,16 +24017,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,16 +24048,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>49.93031781631962</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>126.6554029359235</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,10 +24066,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,10 +24096,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24209,16 +24209,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>302.2574731329353</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,10 +24248,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24263,16 +24263,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>1.962745872244227</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24306,7 +24306,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,19 +24339,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>159.1422836475498</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24418,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>344.4597780394191</v>
       </c>
       <c r="G26" t="n">
         <v>174.288448637476</v>
@@ -24488,16 +24488,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24509,7 +24509,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,16 +24528,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>122.9702605968418</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24640,7 +24640,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
         <v>86.16204325169439</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,13 +24692,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H29" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24759,13 +24759,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>117.6460565997561</v>
       </c>
       <c r="E30" t="n">
-        <v>74.61318839785923</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24813,7 +24813,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24877,16 +24877,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>90.82963045160423</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24926,13 +24926,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,13 +24959,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25041,7 +25041,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25053,10 +25053,10 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>136.2759056302994</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25132,13 +25132,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25151,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25160,7 +25160,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>360.7466147015374</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,7 +25169,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25202,22 +25202,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25230,7 +25230,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.669688469823</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -25239,22 +25239,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>85.58971034153889</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25287,16 +25287,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,13 +25330,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,16 +25397,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25439,7 +25439,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -25448,16 +25448,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>366.4657846212724</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>66.79800611640437</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25588,19 +25588,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>174.454594623674</v>
       </c>
       <c r="C41" t="n">
-        <v>128.8068983107365</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>146.4037945808764</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>145.4643766119907</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25688,13 +25688,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>112.774975257142</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>133.265107218198</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25728,7 +25728,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,7 +25755,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>134.7282052736961</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25764,7 +25764,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>130.3248091459836</v>
       </c>
       <c r="W42" t="n">
         <v>15.22898970064855</v>
@@ -25834,13 +25834,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>343.14996470164</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,7 +25874,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25910,13 +25910,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>216.4801740798473</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>346.654061694213</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>165.2992498668324</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
-        <v>197.9351083214361</v>
+        <v>193.2167101875847</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>166.1891082416369</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>166.0988188154638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,19 +26020,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>169.854427820673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>127.6629441367872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>109.0315960563718</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>138.1649363967735</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26062,7 +26062,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26074,16 +26074,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>246.7351523946503</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>246.9391213747504</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="15">
@@ -26314,7 +26314,7 @@
         <v>59211.39971146602</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146601</v>
       </c>
       <c r="D2" t="n">
         <v>59211.39971146602</v>
@@ -26323,31 +26323,31 @@
         <v>59211.39971146602</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146601</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559939</v>
+        <v>59776.5026755994</v>
       </c>
       <c r="H2" t="n">
         <v>83080.33626566619</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="J2" t="n">
         <v>83080.33626566616</v>
       </c>
       <c r="K2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566619</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566619</v>
       </c>
       <c r="O2" t="n">
         <v>82541.98000756433</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="D4" t="n">
         <v>33.41106180436364</v>
@@ -26439,7 +26439,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26451,7 +26451,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039669</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="O4" t="n">
         <v>176.2367752791008</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298846</v>
+        <v>9878.221331298839</v>
       </c>
       <c r="C6" t="n">
         <v>23143.68893038174</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038174</v>
+        <v>23143.68893038175</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038175</v>
+        <v>56771.28893038174</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038175</v>
+        <v>56771.28893038174</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>55809.77652260325</v>
       </c>
       <c r="H6" t="n">
         <v>15126.56803387552</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420051</v>
       </c>
       <c r="J6" t="n">
         <v>57890.25110039671</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420055</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="M6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420055</v>
       </c>
       <c r="O6" t="n">
         <v>67988.61082990075</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038174</v>
+        <v>56771.28893038175</v>
       </c>
     </row>
   </sheetData>
@@ -34702,16 +34702,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N2" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>39.58387696184059</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="O3" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>39.58387696184059</v>
@@ -34939,19 +34939,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M5" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N5" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>37.98452839772582</v>
@@ -35030,7 +35030,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q6" t="n">
         <v>39.58387696184059</v>
@@ -35176,16 +35176,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="M8" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35264,10 +35264,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>39.58387696184059</v>
@@ -35422,10 +35422,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="O12" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L14" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="M14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M14" t="n">
-        <v>37.98452839772582</v>
       </c>
       <c r="N14" t="n">
         <v>39.58387696184059</v>
@@ -35662,7 +35662,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="L15" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="L15" t="n">
-        <v>39.58387696184059</v>
-      </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>39.58387696184059</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="L17" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330019</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>42.34905430330018</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
@@ -36215,10 +36215,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798016</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37628,13 +37628,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>226.4350751681936</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>201.1578881078215</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37795,7 +37795,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>72.55630025847472</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>156.8162982564931</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>231.0918398430068</v>
       </c>
       <c r="N42" t="n">
         <v>236.4659934602711</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,13 +38023,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N44" t="n">
         <v>37.98452839772582</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N45" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O45" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P45" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>373609.6494672064</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782365</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179437</v>
+        <v>19492207.609564</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.24669789</v>
+        <v>5116643.000488905</v>
       </c>
     </row>
     <row r="11">
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -941,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U5" t="n">
-        <v>12.92549025883184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1069,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K7" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.91618947337665</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1215,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1306,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>39.58387696184059</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
-        <v>9.977552361264268</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1415,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>12.92549025883184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1543,16 +1545,16 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>27.29193749722201</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>39.58387696184059</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1689,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1780,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>27.29193749722201</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1853,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>62.13484214871499</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2129,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.41380945746042</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,13 +2213,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>191.264473050588</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2378,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>170.7457531160715</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,13 +2453,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>89.29749682216328</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2564,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>62.4162677022923</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
@@ -2597,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>34.67481985855913</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>60.18139926390465</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2694,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2792,70 +2794,70 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,10 +2873,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>29.79900896488263</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>75.78697931783405</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2989,16 +2991,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3032,70 +3034,70 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3229,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3275,61 +3277,61 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>212.285385643442</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3345,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>72.05537011386205</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3509,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3582,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>71.3383028733362</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3627,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,10 +3644,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3712,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>208.2792470398066</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3782,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>115.5785074418532</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3876,10 +3878,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>102.4757780034416</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4019,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U44" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4107,19 +4109,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>7.256111626157765</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4174,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>79.95943146291799</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U2" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V2" t="n">
-        <v>83.13413836268582</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W2" t="n">
-        <v>43.15042425981653</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H4" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="F5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O5" t="n">
-        <v>120.7308247336138</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>104.756466833843</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="U5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="W5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="X5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O6" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H7" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I7" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J7" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F8" t="n">
-        <v>135.1878417126385</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G8" t="n">
-        <v>95.20412760976917</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H8" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I8" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O8" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M9" t="n">
-        <v>40.77139327069581</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O9" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>93.21247408113457</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>53.22875997826529</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="C11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="D11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="E11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="F11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="H11" t="n">
-        <v>55.22041350689989</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54278654139161</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R11" t="n">
-        <v>135.1878417126385</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S11" t="n">
-        <v>95.20412760976917</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T11" t="n">
-        <v>55.22041350689989</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U11" t="n">
-        <v>55.22041350689989</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V11" t="n">
-        <v>55.22041350689989</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W11" t="n">
-        <v>55.22041350689989</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="Y11" t="n">
-        <v>55.22041350689989</v>
+        <v>77.28117035226589</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C12" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D12" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E12" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F12" t="n">
-        <v>3.166710156947247</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M12" t="n">
-        <v>79.95943146291799</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="N12" t="n">
-        <v>119.1474696551402</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="O12" t="n">
-        <v>158.3355078473624</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S12" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T12" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U12" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V12" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W12" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X12" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>105.6285745504463</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>133.1961881840039</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>133.1961881840039</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1961881840039</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>133.1961881840039</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="F14" t="n">
-        <v>135.1878417126385</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="G14" t="n">
-        <v>95.20412760976917</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H14" t="n">
-        <v>55.22041350689989</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="I14" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L14" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N14" t="n">
-        <v>158.3355078473624</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>32.70321845405519</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>79.95943146291799</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M15" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>119.1474696551402</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H16" t="n">
-        <v>105.6285745504463</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>166.4370741486873</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>901.2946886937524</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>132.8378388614781</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>4.329008585976936</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>527.5764290961142</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>284.1276524520142</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V20" t="n">
-        <v>40.6788758079141</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>555.4877027295624</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>381.0346734484355</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>381.0346734484355</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>381.0346734484355</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5861,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="V21" t="n">
-        <v>555.4877027295624</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W21" t="n">
-        <v>555.4877027295624</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X21" t="n">
-        <v>555.4877027295624</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y21" t="n">
-        <v>555.4877027295624</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>72.23626279480629</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C23" t="n">
-        <v>72.23626279480629</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="R23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V23" t="n">
-        <v>802.5825927271064</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W23" t="n">
-        <v>802.5825927271064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X23" t="n">
-        <v>559.1338160830064</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y23" t="n">
-        <v>315.6850394389064</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>191.7516008032143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6075,7 +6077,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>634.6640077999109</v>
+        <v>873.8576637710773</v>
       </c>
       <c r="V24" t="n">
-        <v>399.5118995681682</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W24" t="n">
-        <v>399.5118995681682</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X24" t="n">
-        <v>399.5118995681682</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y24" t="n">
-        <v>191.7516008032143</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>569.2254314512334</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C26" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>262.7299197543128</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y26" t="n">
-        <v>569.2254314512334</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>452.9407326573341</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="C27" t="n">
-        <v>452.9407326573341</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="D27" t="n">
-        <v>452.9407326573341</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="E27" t="n">
-        <v>417.9156620931329</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="F27" t="n">
-        <v>271.3811041200179</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>171.1241970916042</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>660.701031422288</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>660.701031422288</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>660.701031422288</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y27" t="n">
-        <v>452.9407326573341</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6503,10 +6505,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.38115216564972</v>
+        <v>343.4227147053767</v>
       </c>
       <c r="C30" t="n">
-        <v>49.38115216564972</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>786.3351217020734</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>786.3351217020734</v>
       </c>
       <c r="U30" t="n">
-        <v>735.8335372470253</v>
+        <v>786.3351217020734</v>
       </c>
       <c r="V30" t="n">
-        <v>500.6814290152826</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="W30" t="n">
-        <v>257.2326523711826</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="X30" t="n">
-        <v>49.38115216564972</v>
+        <v>551.1830134703307</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.38115216564972</v>
+        <v>343.4227147053767</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W32" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X32" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>756.2056553051034</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C36" t="n">
-        <v>581.7526260239764</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D36" t="n">
-        <v>581.7526260239764</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G36" t="n">
         <v>223.7040404982626</v>
@@ -7017,16 +7019,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O36" t="n">
         <v>712.019119383956</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2056553051034</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="37">
@@ -7117,13 +7119,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
         <v>19.28114311021272</v>
@@ -7157,13 +7159,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F38" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7227,13 +7229,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E39" t="n">
         <v>19.28114311021272</v>
@@ -7254,13 +7256,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N39" t="n">
         <v>712.019119383956</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W39" t="n">
-        <v>227.1326433157456</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
     </row>
     <row r="40">
@@ -7360,16 +7362,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
         <v>829.5248650203655</v>
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>945.8639738410842</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>707.0094349923255</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>468.1548961435668</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.3003572948082</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.6714121296074</v>
+        <v>136.7812428759814</v>
       </c>
       <c r="C42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.6714121296074</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>18.91727947682168</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>248.8803853451708</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M42" t="n">
-        <v>477.6613067897475</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N42" t="n">
-        <v>711.7626403154159</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>945.8639738410842</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>945.8639738410842</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>842.3530869689209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>603.4985481201622</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>395.6470479146294</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>187.8867491496754</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.15042425981653</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>43.15042425981653</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>43.15042425981653</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>43.15042425981653</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>3.166710156947247</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>120.7308247336138</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>158.3355078473624</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>158.3355078473624</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>158.3355078473624</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>158.3355078473624</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>158.3355078473624</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>158.3355078473624</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U44" t="n">
-        <v>123.1178524655551</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>123.1178524655551</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>123.1178524655551</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>123.1178524655551</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>83.13413836268582</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>3.166710156947247</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>42.35474834916943</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N45" t="n">
-        <v>81.54278654139161</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>119.1474696551402</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>119.1474696551402</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>123.1178524655551</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>83.13413836268582</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V45" t="n">
-        <v>43.15042425981653</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W45" t="n">
-        <v>3.166710156947247</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X45" t="n">
-        <v>3.166710156947247</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>90.46354404567346</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>50.47982994280417</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.49611583993489</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>269.2175241529953</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8312,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>273.750943367713</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>176.5389081776</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>268.3307616249986</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>180.1185623197441</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>170.9255890451739</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,19 +8929,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>269.9301101891133</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
-        <v>268.9969405584315</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>176.5389081776</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N15" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9723,10 +9725,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>231.1529892133073</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M30" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
@@ -10206,10 +10208,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10434,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
@@ -11060,13 +11062,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>373.2258737650251</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>367.8077055436044</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>269.9301101891133</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>267.3975919943167</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,22 +11381,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O45" t="n">
-        <v>180.5807728421703</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>179.5656510478621</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22592,25 +22594,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>115.0036391131605</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U2" t="n">
-        <v>211.7617759459959</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22720,13 +22722,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>132.9374890786825</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U5" t="n">
-        <v>238.4201626490047</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22872,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22911,16 +22913,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -22957,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K7" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>383.9598562683348</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G8" t="n">
-        <v>375.7188605532945</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H8" t="n">
-        <v>299.8909251539266</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I8" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23063,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23103,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>118.7734630237764</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23194,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>322.5431732532999</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>136.9436276823178</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23321,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>325.5989282992405</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23340,16 +23342,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.3128931854102</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>106.9441862880172</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>136.8176922758487</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23431,16 +23433,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>134.9352350102176</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>170.8920126085653</v>
+        <v>193.5442607079387</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23577,16 +23579,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -23622,19 +23624,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23668,13 +23670,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>134.9352350102176</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I16" t="n">
-        <v>115.8665979654177</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23741,19 +23743,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>104.3983415011523</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23938,19 +23940,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>251.3471928761457</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23981,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>394.1189821444107</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24017,22 +24019,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>126.6554029359235</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,13 +24101,13 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>34.67690903038678</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24114,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24181,10 +24183,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>302.2574731329353</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,10 +24250,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>8.181203141508671</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24266,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1.962745872244227</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,13 +24341,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>136.6438852588115</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,10 +24454,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>344.4597780394191</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24497,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>122.9702605968418</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>52.05404497259181</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24582,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24680,28 +24682,28 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>214.9666412263055</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,10 +24761,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>117.6460565997561</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>95.89619178600377</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24877,16 +24879,16 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24920,16 +24922,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24959,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25117,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25132,13 +25134,13 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25163,13 +25165,13 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>204.5813593128142</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25211,13 +25213,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25233,19 +25235,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>85.58971034153889</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25366,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25397,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H38" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25470,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>101.3701961149795</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25515,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,10 +25532,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>181.0464140131996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>174.454594623674</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>112.774975257142</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>133.265107218198</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>57.12999154646258</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25764,10 +25766,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>130.3248091459836</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.14996470164</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U44" t="n">
-        <v>216.4801740798473</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25995,19 +25997,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>165.2992498668324</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>138.1649363967735</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26062,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
         <v>86.16204325169439</v>
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453862</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.5026755994</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
+        <v>83080.33626566624</v>
+      </c>
+      <c r="K2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="L2" t="n">
         <v>83080.33626566616</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83080.33626566619</v>
-      </c>
-      <c r="L2" t="n">
-        <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566619</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="O2" t="n">
-        <v>82541.98000756433</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.39971146602</v>
+        <v>83080.33626566621</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26439,7 +26441,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="J4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="K4" t="n">
         <v>179.5324977039669</v>
@@ -26451,13 +26453,13 @@
         <v>179.5324977039669</v>
       </c>
       <c r="N4" t="n">
-        <v>179.5324977039668</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298839</v>
+        <v>8639.090067833793</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038174</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038175</v>
+        <v>23428.79607207804</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207803</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260325</v>
+        <v>14284.70010372825</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387552</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420051</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039671</v>
+        <v>56700.21689420971</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420055</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="M6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420055</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="O6" t="n">
-        <v>67988.61082990075</v>
+        <v>20867.25678673678</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038175</v>
+        <v>68247.13500420057</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O12" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,19 +35649,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,13 +36913,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M30" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
@@ -36926,10 +36928,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>231.0918398430068</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>236.4659934602711</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>39.58387696184059</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>37.98452839772582</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O45" t="n">
-        <v>37.98452839772582</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>39.58387696184059</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672064</v>
+        <v>268277.9841761547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782365</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.609564</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488905</v>
+        <v>5764008.847562066</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>63.14223173826442</v>
       </c>
       <c r="U3" t="n">
-        <v>38.87161743162454</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>16.93162886246722</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>38.87161743162455</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>44.13217237922859</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>44.13217237922859</v>
+        <v>130.7406573088296</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H11" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1454,16 +1454,16 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>44.13217237922859</v>
+        <v>105.9704144860449</v>
       </c>
       <c r="F12" t="n">
-        <v>38.12502610536669</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>16.93162886246721</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1691,19 +1691,19 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>52.0628898883872</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1782,16 +1782,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2125,28 +2125,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2210,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>191.264473050588</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>62.52515684565935</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>241.0142888776591</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>89.29749682216328</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>63.88882306452232</v>
       </c>
     </row>
     <row r="25">
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2651,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>60.18139926390465</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>82.69355372315674</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>75.78697931783405</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3073,28 +3073,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="W32" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,28 +3110,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3164,16 +3164,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>202.2946864288972</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>35.00246782997241</v>
+        <v>111.1751113141405</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3511,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>71.3383028733362</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>190.3453970742849</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>115.5785074418532</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="T44" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -4121,7 +4121,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,49 +4146,49 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>137.2644294849704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>92.68647758675968</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>48.10852568854899</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>90.91227510121089</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>132.8378388614781</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U3" t="n">
-        <v>3.530573790338288</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V3" t="n">
-        <v>3.530573790338288</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>149.3344187320537</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>104.756466833843</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>60.17851493563234</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>15.60056303742164</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>15.60056303742164</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>15.60056303742164</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>15.60056303742164</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.60056303742164</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.530573790338288</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>89.14698820604177</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>89.14698820604177</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>89.14698820604177</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>92.68647758675968</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>48.10852568854899</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V6" t="n">
-        <v>3.530573790338288</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="W6" t="n">
-        <v>3.530573790338288</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X6" t="n">
-        <v>3.530573790338288</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.530573790338288</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>89.14698820604177</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>176.5286895169144</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>176.5286895169144</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>176.5286895169144</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>77.28117035226589</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>77.28117035226589</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W11" t="n">
-        <v>121.8591222504766</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X11" t="n">
-        <v>77.28117035226589</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.28117035226589</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C12" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D12" t="n">
-        <v>131.9507376187037</v>
+        <v>411.587349213889</v>
       </c>
       <c r="E12" t="n">
-        <v>87.37278572049297</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F12" t="n">
-        <v>48.8626583413347</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>3.530573790338288</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>45.45613755060546</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V12" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W12" t="n">
-        <v>176.5286895169144</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X12" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y12" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C14" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D14" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E14" t="n">
-        <v>32.70321845405519</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>32.70321845405519</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>77.28117035226589</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U14" t="n">
-        <v>32.70321845405519</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V14" t="n">
-        <v>32.70321845405519</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W14" t="n">
-        <v>32.70321845405519</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X14" t="n">
-        <v>32.70321845405519</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.70321845405519</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="C15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="D15" t="n">
-        <v>3.530573790338288</v>
+        <v>470.5044397581705</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>89.14698820604177</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T15" t="n">
-        <v>87.37278572049297</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U15" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V15" t="n">
-        <v>42.79483382228227</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.530573790338288</v>
+        <v>619.4388494194218</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>901.2946886937524</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>726.8416594126254</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9072497513741</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
         <v>20.03527576299844</v>
@@ -5603,43 +5603,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5712,10 +5712,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5773,25 +5773,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N21" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>395.2567788952347</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>395.2567788952347</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W21" t="n">
-        <v>395.2567788952347</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X21" t="n">
-        <v>395.2567788952347</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5943,10 +5943,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C23" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>718.7806050553886</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>962.2293816994886</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>962.2293816994886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="W23" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y23" t="n">
-        <v>718.7806050553886</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="24">
@@ -6077,16 +6077,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>873.8576637710773</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>638.7055555393347</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>395.2567788952347</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X24" t="n">
-        <v>395.2567788952347</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y24" t="n">
-        <v>187.4964801302808</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H25" t="n">
         <v>19.28114311021272</v>
@@ -6177,22 +6177,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
         <v>506.1786963984129</v>
@@ -6211,13 +6211,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6256,22 +6256,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>171.1241970916042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>880.5283133660334</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X27" t="n">
-        <v>339.3395341116723</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6411,16 +6411,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
         <v>19.28114311021272</v>
@@ -6487,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>343.4227147053767</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>168.9696854242497</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
         <v>20.03527576299844</v>
@@ -6545,49 +6545,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L30" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>786.3351217020734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>786.3351217020734</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>786.3351217020734</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V30" t="n">
-        <v>551.1830134703307</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W30" t="n">
-        <v>551.1830134703307</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X30" t="n">
-        <v>551.1830134703307</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y30" t="n">
-        <v>343.4227147053767</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V32" t="n">
-        <v>509.4769954460863</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,13 +6788,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6879,19 +6879,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
         <v>19.28114311021272</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>467.067986854209</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C35" t="n">
         <v>467.067986854209</v>
@@ -6922,13 +6922,13 @@
         <v>467.067986854209</v>
       </c>
       <c r="E35" t="n">
-        <v>223.6192102101089</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6973,16 +6973,16 @@
         <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="W35" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="X35" t="n">
+        <v>953.9655401424092</v>
+      </c>
+      <c r="Y35" t="n">
         <v>710.516763498309</v>
-      </c>
-      <c r="W35" t="n">
-        <v>710.516763498309</v>
-      </c>
-      <c r="X35" t="n">
-        <v>467.067986854209</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>467.067986854209</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>257.8852890990952</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N36" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>223.7040404982626</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W36" t="n">
-        <v>223.7040404982626</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X36" t="n">
-        <v>223.7040404982626</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="E38" t="n">
-        <v>477.1596022224361</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="F38" t="n">
-        <v>233.7108255783361</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>728.6161971483371</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>399.5118995681682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7259,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W39" t="n">
-        <v>399.5118995681682</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X39" t="n">
-        <v>399.5118995681682</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y39" t="n">
-        <v>399.5118995681682</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7441,22 +7441,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W41" t="n">
-        <v>710.516763498309</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X41" t="n">
-        <v>467.067986854209</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="42">
@@ -7466,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>136.7812428759814</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C42" t="n">
         <v>20.03527576299844</v>
@@ -7496,46 +7496,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y42" t="n">
-        <v>304.9965798960495</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
         <v>19.28114311021272</v>
@@ -7593,28 +7593,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7675,25 +7675,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T44" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y44" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="45">
@@ -7703,7 +7703,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
         <v>19.28114311021272</v>
@@ -7736,7 +7736,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>249.2442489785619</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N45" t="n">
         <v>473.4149733950735</v>
@@ -7757,22 +7757,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W45" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7836,22 +7836,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>303.8835549304717</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>173.6907663866335</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9166,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9251,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133073</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>185.4193833999402</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,25 +10193,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10436,16 +10436,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -10676,16 +10676,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O36" t="n">
-        <v>360.302996258564</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11144,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,10 +11384,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N45" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22591,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22612,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="U3" t="n">
-        <v>187.0697646493503</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22722,16 +22722,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>298.3140538843193</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>132.9374890786825</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22913,22 +22913,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>161.2931112631971</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>181.8092097017462</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>188.6684147701967</v>
+        <v>102.0599298405957</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22959,16 +22959,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23077,16 +23077,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>118.7734630237764</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
-        <v>322.5431732532999</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23342,16 +23342,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>113.5129080761724</v>
+        <v>51.67466596935604</v>
       </c>
       <c r="F12" t="n">
-        <v>106.9441862880172</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23399,10 +23399,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23506,7 +23506,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23515,10 +23515,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>193.5442607079387</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U14" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23579,19 +23579,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>105.5821905670137</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>212.8233657292951</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23670,16 +23670,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,13 +23740,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>104.3983415011523</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -24013,28 +24013,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266928</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24098,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>34.67690903038678</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>143.2478283578181</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>174.288448637476</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24265,10 +24265,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>136.6438852588115</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>141.793872712782</v>
       </c>
     </row>
     <row r="25">
@@ -24381,7 +24381,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I25" t="n">
         <v>155.4504749272583</v>
@@ -24417,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24496,13 +24496,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>107.53913272771</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24539,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>52.05404497259181</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>88.98961738068108</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24727,10 +24727,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24739,13 +24739,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>137.4807660112426</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>95.89619178600377</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24894,10 +24894,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24937,7 +24937,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24961,28 +24961,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>318.0150222981159</v>
       </c>
       <c r="W32" t="n">
-        <v>345.9756526602163</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25052,16 +25052,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25119,7 +25119,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25131,10 +25131,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>204.5813593128142</v>
@@ -25171,7 +25171,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25213,16 +25213,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>197.7981193194529</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25329,7 +25329,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H37" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I37" t="n">
         <v>155.4504749272583</v>
@@ -25359,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,13 +25472,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>101.3701961149795</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>50.84673021034784</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>32.75045248984648</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.9432522271564</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>57.12999154646258</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>108.137662477717</v>
       </c>
       <c r="T44" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25997,7 +25997,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26076,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>498482.0175939974</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.5026755994</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="G2" t="n">
         <v>83080.33626566621</v>
@@ -26334,25 +26334,25 @@
         <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
+        <v>83080.33626566615</v>
+      </c>
+      <c r="J2" t="n">
         <v>83080.33626566618</v>
       </c>
-      <c r="J2" t="n">
-        <v>83080.33626566624</v>
-      </c>
       <c r="K2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="L2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="M2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="L2" t="n">
-        <v>83080.33626566616</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>83080.33626566621</v>
+      </c>
+      <c r="O2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="N2" t="n">
-        <v>83080.33626566616</v>
-      </c>
-      <c r="O2" t="n">
-        <v>83080.33626566621</v>
       </c>
       <c r="P2" t="n">
         <v>83080.33626566621</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039668</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.090067833793</v>
+        <v>-58367.90714738762</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.52438416007</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207804</v>
+        <v>22401.52438416007</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207803</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372825</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420971</v>
+        <v>-7030.818214946154</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.1243841601</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673678</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.1243841601</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>42.34905430330018</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35971,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>99.81127712997396</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792188</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37864,13 +37864,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N45" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
